--- a/Code/Results/Cases/Case_7_19/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_19/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.965490764350779</v>
+        <v>0.9654907643507809</v>
       </c>
       <c r="D2">
-        <v>0.9909410204974278</v>
+        <v>0.9909410204974296</v>
       </c>
       <c r="E2">
-        <v>0.9741685343264219</v>
+        <v>0.9741685343264241</v>
       </c>
       <c r="F2">
-        <v>0.94041658423045</v>
+        <v>0.9404165842304517</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,19 +439,19 @@
         <v>1.031922783209725</v>
       </c>
       <c r="J2">
-        <v>0.9887550190430504</v>
+        <v>0.9887550190430523</v>
       </c>
       <c r="K2">
-        <v>1.002528020873888</v>
+        <v>1.00252802087389</v>
       </c>
       <c r="L2">
-        <v>0.9859998716858099</v>
+        <v>0.9859998716858119</v>
       </c>
       <c r="M2">
-        <v>0.9527735354147128</v>
+        <v>0.9527735354147144</v>
       </c>
       <c r="N2">
-        <v>0.9901591645818775</v>
+        <v>0.9901591645818792</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9769377782726542</v>
+        <v>0.976937778272656</v>
       </c>
       <c r="D3">
-        <v>0.9997854397836426</v>
+        <v>0.9997854397836443</v>
       </c>
       <c r="E3">
-        <v>0.9840772148632367</v>
+        <v>0.9840772148632382</v>
       </c>
       <c r="F3">
-        <v>0.9551008209614442</v>
+        <v>0.9551008209614459</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.035901098305474</v>
+        <v>1.035901098305475</v>
       </c>
       <c r="J3">
-        <v>0.9980775158039464</v>
+        <v>0.998077515803948</v>
       </c>
       <c r="K3">
-        <v>1.010421066684089</v>
+        <v>1.010421066684091</v>
       </c>
       <c r="L3">
-        <v>0.9949179680096958</v>
+        <v>0.9949179680096975</v>
       </c>
       <c r="M3">
-        <v>0.9663423658622391</v>
+        <v>0.9663423658622405</v>
       </c>
       <c r="N3">
-        <v>0.9994949003574793</v>
+        <v>0.999494900357481</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,16 +503,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9839783851462998</v>
+        <v>0.9839783851462995</v>
       </c>
       <c r="D4">
         <v>1.005228524489156</v>
       </c>
       <c r="E4">
-        <v>0.9901733654860824</v>
+        <v>0.9901733654860821</v>
       </c>
       <c r="F4">
-        <v>0.9641161828189432</v>
+        <v>0.9641161828189426</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -521,19 +521,19 @@
         <v>1.03832812846267</v>
       </c>
       <c r="J4">
-        <v>1.003800998517012</v>
+        <v>1.003800998517011</v>
       </c>
       <c r="K4">
         <v>1.015264252778431</v>
       </c>
       <c r="L4">
-        <v>1.000391854265675</v>
+        <v>1.000391854265674</v>
       </c>
       <c r="M4">
-        <v>0.9746678970722118</v>
+        <v>0.9746678970722114</v>
       </c>
       <c r="N4">
-        <v>1.00522651107249</v>
+        <v>1.005226511072489</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.986858738835395</v>
+        <v>0.9868587388353968</v>
       </c>
       <c r="D5">
-        <v>1.007455842516653</v>
+        <v>1.007455842516654</v>
       </c>
       <c r="E5">
-        <v>0.9926675865989939</v>
+        <v>0.9926675865989958</v>
       </c>
       <c r="F5">
-        <v>0.9678015032635562</v>
+        <v>0.9678015032635578</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039316173292202</v>
+        <v>1.039316173292203</v>
       </c>
       <c r="J5">
-        <v>1.006139972752384</v>
+        <v>1.006139972752386</v>
       </c>
       <c r="K5">
-        <v>1.017242743187997</v>
+        <v>1.017242743187998</v>
       </c>
       <c r="L5">
-        <v>1.002628475881026</v>
+        <v>1.002628475881028</v>
       </c>
       <c r="M5">
-        <v>0.9780699145954487</v>
+        <v>0.9780699145954502</v>
       </c>
       <c r="N5">
-        <v>1.007568806919561</v>
+        <v>1.007568806919562</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9873379146745863</v>
+        <v>0.9873379146745882</v>
       </c>
       <c r="D6">
-        <v>1.007826403054638</v>
+        <v>1.00782640305464</v>
       </c>
       <c r="E6">
-        <v>0.9930825358488187</v>
+        <v>0.9930825358488206</v>
       </c>
       <c r="F6">
-        <v>0.9684144476851103</v>
+        <v>0.9684144476851126</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039480255224131</v>
+        <v>1.039480255224132</v>
       </c>
       <c r="J6">
-        <v>1.00652893432371</v>
+        <v>1.006528934323712</v>
       </c>
       <c r="K6">
-        <v>1.017571711774971</v>
+        <v>1.017571711774973</v>
       </c>
       <c r="L6">
-        <v>1.003000395017313</v>
+        <v>1.003000395017315</v>
       </c>
       <c r="M6">
-        <v>0.9786356599486404</v>
+        <v>0.9786356599486428</v>
       </c>
       <c r="N6">
-        <v>1.007958320860932</v>
+        <v>1.007958320860934</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9840171751390896</v>
+        <v>0.9840171751390884</v>
       </c>
       <c r="D7">
-        <v>1.005258518239085</v>
+        <v>1.005258518239084</v>
       </c>
       <c r="E7">
-        <v>0.9902069545987652</v>
+        <v>0.9902069545987645</v>
       </c>
       <c r="F7">
-        <v>0.9641658237624469</v>
+        <v>0.9641658237624453</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038341454022681</v>
+        <v>1.03834145402268</v>
       </c>
       <c r="J7">
-        <v>1.003832507828015</v>
+        <v>1.003832507828013</v>
       </c>
       <c r="K7">
-        <v>1.015290908914406</v>
+        <v>1.015290908914405</v>
       </c>
       <c r="L7">
-        <v>1.000421986182324</v>
+        <v>1.000421986182323</v>
       </c>
       <c r="M7">
-        <v>0.9747137272927399</v>
+        <v>0.9747137272927383</v>
       </c>
       <c r="N7">
-        <v>1.005258065130328</v>
+        <v>1.005258065130327</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9694405642387373</v>
+        <v>0.9694405642387338</v>
       </c>
       <c r="D8">
-        <v>0.9939919313524749</v>
+        <v>0.9939919313524719</v>
       </c>
       <c r="E8">
-        <v>0.9775870564857664</v>
+        <v>0.9775870564857631</v>
       </c>
       <c r="F8">
-        <v>0.945487573691759</v>
+        <v>0.9454875736917551</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.033299692901626</v>
+        <v>1.033299692901625</v>
       </c>
       <c r="J8">
-        <v>0.991973959178115</v>
+        <v>0.9919739591781116</v>
       </c>
       <c r="K8">
-        <v>1.005253905520325</v>
+        <v>1.005253905520322</v>
       </c>
       <c r="L8">
-        <v>0.9890794349737374</v>
+        <v>0.9890794349737341</v>
       </c>
       <c r="M8">
-        <v>0.9574603399455068</v>
+        <v>0.9574603399455031</v>
       </c>
       <c r="N8">
-        <v>0.9933826759811516</v>
+        <v>0.9933826759811479</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9404921245538184</v>
+        <v>0.9404921245538199</v>
       </c>
       <c r="D9">
-        <v>0.9716595572397518</v>
+        <v>0.9716595572397532</v>
       </c>
       <c r="E9">
-        <v>0.9525488128689398</v>
+        <v>0.9525488128689409</v>
       </c>
       <c r="F9">
-        <v>0.9081908437377845</v>
+        <v>0.9081908437377857</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.023123225375348</v>
+        <v>1.023123225375349</v>
       </c>
       <c r="J9">
-        <v>0.9683366344523495</v>
+        <v>0.9683366344523509</v>
       </c>
       <c r="K9">
-        <v>0.9852298065107438</v>
+        <v>0.9852298065107452</v>
       </c>
       <c r="L9">
-        <v>0.9664617163112724</v>
+        <v>0.9664617163112739</v>
       </c>
       <c r="M9">
-        <v>0.9229725790590702</v>
+        <v>0.9229725790590715</v>
       </c>
       <c r="N9">
-        <v>0.9697117835430363</v>
+        <v>0.9697117835430379</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9181586749767529</v>
+        <v>0.9181586749767537</v>
       </c>
       <c r="D10">
-        <v>0.9544872958360321</v>
+        <v>0.9544872958360328</v>
       </c>
       <c r="E10">
-        <v>0.9332670813866866</v>
+        <v>0.9332670813866873</v>
       </c>
       <c r="F10">
-        <v>0.8791478755765311</v>
+        <v>0.8791478755765318</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.015167182094803</v>
+        <v>1.015167182094804</v>
       </c>
       <c r="J10">
-        <v>0.9500428733849612</v>
+        <v>0.950042873384962</v>
       </c>
       <c r="K10">
-        <v>0.9697299717892687</v>
+        <v>0.9697299717892695</v>
       </c>
       <c r="L10">
-        <v>0.9489556601703446</v>
+        <v>0.9489556601703454</v>
       </c>
       <c r="M10">
-        <v>0.8961056097433054</v>
+        <v>0.8961056097433063</v>
       </c>
       <c r="N10">
-        <v>0.9513920432366084</v>
+        <v>0.9513920432366094</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9074894808683163</v>
+        <v>0.9074894808683138</v>
       </c>
       <c r="D11">
-        <v>0.9463057842151988</v>
+        <v>0.9463057842151972</v>
       </c>
       <c r="E11">
-        <v>0.9240699498330548</v>
+        <v>0.9240699498330524</v>
       </c>
       <c r="F11">
-        <v>0.8651640425241345</v>
+        <v>0.865164042524132</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.011344050402006</v>
+        <v>1.011344050402005</v>
       </c>
       <c r="J11">
-        <v>0.9412903571358251</v>
+        <v>0.9412903571358227</v>
       </c>
       <c r="K11">
-        <v>0.9623166746240271</v>
+        <v>0.962316674624025</v>
       </c>
       <c r="L11">
-        <v>0.9405814321734405</v>
+        <v>0.940581432173438</v>
       </c>
       <c r="M11">
-        <v>0.8831718569924785</v>
+        <v>0.883171856992476</v>
       </c>
       <c r="N11">
-        <v>0.942627097410471</v>
+        <v>0.9426270974104687</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,16 +831,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.903341897476608</v>
+        <v>0.9033418974766095</v>
       </c>
       <c r="D12">
-        <v>0.9431295511592346</v>
+        <v>0.9431295511592361</v>
       </c>
       <c r="E12">
-        <v>0.9204974355105188</v>
+        <v>0.9204974355105203</v>
       </c>
       <c r="F12">
-        <v>0.8597057074019134</v>
+        <v>0.8597057074019155</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -849,19 +849,19 @@
         <v>1.009854783513706</v>
       </c>
       <c r="J12">
-        <v>0.9378859417235843</v>
+        <v>0.937885941723586</v>
       </c>
       <c r="K12">
-        <v>0.9594338999509768</v>
+        <v>0.9594338999509783</v>
       </c>
       <c r="L12">
-        <v>0.9373245981671008</v>
+        <v>0.9373245981671025</v>
       </c>
       <c r="M12">
-        <v>0.8781244191933876</v>
+        <v>0.8781244191933898</v>
       </c>
       <c r="N12">
-        <v>0.9392178473378529</v>
+        <v>0.9392178473378544</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,16 +872,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9042406155294966</v>
+        <v>0.9042406155294972</v>
       </c>
       <c r="D13">
-        <v>0.9438175818657292</v>
+        <v>0.9438175818657298</v>
       </c>
       <c r="E13">
-        <v>0.921271405298777</v>
+        <v>0.9212714052987773</v>
       </c>
       <c r="F13">
-        <v>0.8608895603436786</v>
+        <v>0.8608895603436794</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -890,19 +890,19 @@
         <v>1.010177616041495</v>
       </c>
       <c r="J13">
-        <v>0.9386237126065385</v>
+        <v>0.9386237126065394</v>
       </c>
       <c r="K13">
-        <v>0.9600585862385058</v>
+        <v>0.9600585862385066</v>
       </c>
       <c r="L13">
-        <v>0.938030362233786</v>
+        <v>0.9380303622337863</v>
       </c>
       <c r="M13">
-        <v>0.8792190938124514</v>
+        <v>0.8792190938124521</v>
       </c>
       <c r="N13">
-        <v>0.9399566659400846</v>
+        <v>0.9399566659400852</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,16 +913,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.907150650842325</v>
+        <v>0.9071506508423247</v>
       </c>
       <c r="D14">
-        <v>0.946046214662892</v>
+        <v>0.9460462146628914</v>
       </c>
       <c r="E14">
-        <v>0.9237780379841677</v>
+        <v>0.9237780379841672</v>
       </c>
       <c r="F14">
-        <v>0.8647186199152784</v>
+        <v>0.8647186199152782</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -931,19 +931,19 @@
         <v>1.011222446363597</v>
       </c>
       <c r="J14">
-        <v>0.9410122775041599</v>
+        <v>0.9410122775041594</v>
       </c>
       <c r="K14">
-        <v>0.9620811865338601</v>
+        <v>0.9620811865338597</v>
       </c>
       <c r="L14">
         <v>0.9403153968150498</v>
       </c>
       <c r="M14">
-        <v>0.8827599401598238</v>
+        <v>0.8827599401598236</v>
       </c>
       <c r="N14">
-        <v>0.9423486228738325</v>
+        <v>0.9423486228738323</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9089179155343103</v>
+        <v>0.9089179155343129</v>
       </c>
       <c r="D15">
-        <v>0.9474002519969426</v>
+        <v>0.9474002519969449</v>
       </c>
       <c r="E15">
-        <v>0.9253007051184362</v>
+        <v>0.9253007051184385</v>
       </c>
       <c r="F15">
-        <v>0.8670409167935057</v>
+        <v>0.8670409167935085</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.011856586500697</v>
+        <v>1.011856586500698</v>
       </c>
       <c r="J15">
-        <v>0.9424626039591477</v>
+        <v>0.9424626039591503</v>
       </c>
       <c r="K15">
-        <v>0.963309408284047</v>
+        <v>0.9633094082840492</v>
       </c>
       <c r="L15">
-        <v>0.9417029255475301</v>
+        <v>0.9417029255475323</v>
       </c>
       <c r="M15">
-        <v>0.8849075935695087</v>
+        <v>0.8849075935695115</v>
       </c>
       <c r="N15">
-        <v>0.9438010089587413</v>
+        <v>0.943801008958744</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,16 +995,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9188430344247813</v>
+        <v>0.9188430344247801</v>
       </c>
       <c r="D16">
-        <v>0.9550126057822881</v>
+        <v>0.9550126057822875</v>
       </c>
       <c r="E16">
-        <v>0.9338573557981807</v>
+        <v>0.9338573557981796</v>
       </c>
       <c r="F16">
-        <v>0.8800422117948178</v>
+        <v>0.8800422117948165</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1013,19 +1013,19 @@
         <v>1.015411983493058</v>
       </c>
       <c r="J16">
-        <v>0.9506040287276595</v>
+        <v>0.9506040287276584</v>
       </c>
       <c r="K16">
-        <v>0.97020534232955</v>
+        <v>0.9702053423295491</v>
       </c>
       <c r="L16">
-        <v>0.949492607503976</v>
+        <v>0.9494926075039748</v>
       </c>
       <c r="M16">
-        <v>0.8969328842985034</v>
+        <v>0.8969328842985022</v>
       </c>
       <c r="N16">
-        <v>0.9519539954842587</v>
+        <v>0.9519539954842576</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9247805731572892</v>
+        <v>0.9247805731572891</v>
       </c>
       <c r="D17">
-        <v>0.9595727225128867</v>
+        <v>0.9595727225128863</v>
       </c>
       <c r="E17">
-        <v>0.9389802187944716</v>
+        <v>0.9389802187944718</v>
       </c>
       <c r="F17">
-        <v>0.887789109474971</v>
+        <v>0.8877891094749709</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.017533476314582</v>
+        <v>1.017533476314581</v>
       </c>
       <c r="J17">
-        <v>0.9554712080270773</v>
+        <v>0.9554712080270772</v>
       </c>
       <c r="K17">
-        <v>0.9743287701575921</v>
+        <v>0.9743287701575917</v>
       </c>
       <c r="L17">
-        <v>0.9541499909957386</v>
+        <v>0.9541499909957387</v>
       </c>
       <c r="M17">
-        <v>0.9040991897834659</v>
+        <v>0.9040991897834657</v>
       </c>
       <c r="N17">
-        <v>0.956828086736555</v>
+        <v>0.9568280867365548</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,16 +1077,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9281503159824692</v>
+        <v>0.9281503159824691</v>
       </c>
       <c r="D18">
-        <v>0.9621626680599882</v>
+        <v>0.962162668059988</v>
       </c>
       <c r="E18">
-        <v>0.9418888452653444</v>
+        <v>0.9418888452653442</v>
       </c>
       <c r="F18">
-        <v>0.8921762317659471</v>
+        <v>0.8921762317659466</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1095,19 +1095,19 @@
         <v>1.018735439664686</v>
       </c>
       <c r="J18">
-        <v>0.9582322887593234</v>
+        <v>0.9582322887593232</v>
       </c>
       <c r="K18">
-        <v>0.9766681306313469</v>
+        <v>0.9766681306313466</v>
       </c>
       <c r="L18">
-        <v>0.9567921686929518</v>
+        <v>0.9567921686929517</v>
       </c>
       <c r="M18">
-        <v>0.9081576818926549</v>
+        <v>0.9081576818926546</v>
       </c>
       <c r="N18">
-        <v>0.9595930885201415</v>
+        <v>0.9595930885201412</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1121,13 +1121,13 @@
         <v>0.9292843122336238</v>
       </c>
       <c r="D19">
-        <v>0.9630345489532575</v>
+        <v>0.9630345489532572</v>
       </c>
       <c r="E19">
-        <v>0.9428678587838417</v>
+        <v>0.9428678587838414</v>
       </c>
       <c r="F19">
-        <v>0.8936511228011335</v>
+        <v>0.8936511228011337</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1136,13 +1136,13 @@
         <v>1.019139572302095</v>
       </c>
       <c r="J19">
-        <v>0.9591612511644658</v>
+        <v>0.9591612511644657</v>
       </c>
       <c r="K19">
-        <v>0.9774552308573777</v>
+        <v>0.9774552308573775</v>
       </c>
       <c r="L19">
-        <v>0.9576811399335114</v>
+        <v>0.9576811399335112</v>
       </c>
       <c r="M19">
         <v>0.9095221045214265</v>
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9241534169001784</v>
+        <v>0.9241534169001744</v>
       </c>
       <c r="D20">
-        <v>0.9590908493919788</v>
+        <v>0.9590908493919756</v>
       </c>
       <c r="E20">
-        <v>0.9384389796933064</v>
+        <v>0.9384389796933029</v>
       </c>
       <c r="F20">
-        <v>0.8869718634610739</v>
+        <v>0.8869718634610698</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.01730960482155</v>
+        <v>1.017309604821549</v>
       </c>
       <c r="J20">
-        <v>0.9549572340820768</v>
+        <v>0.9549572340820732</v>
       </c>
       <c r="K20">
-        <v>0.973893313364306</v>
+        <v>0.9738933133643028</v>
       </c>
       <c r="L20">
-        <v>0.953658158563054</v>
+        <v>0.9536581585630509</v>
       </c>
       <c r="M20">
-        <v>0.9033431715333097</v>
+        <v>0.9033431715333057</v>
       </c>
       <c r="N20">
-        <v>0.9563133828895991</v>
+        <v>0.9563133828895954</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9062991541682178</v>
+        <v>0.9062991541682192</v>
       </c>
       <c r="D21">
-        <v>0.9453939755357419</v>
+        <v>0.945393975535743</v>
       </c>
       <c r="E21">
-        <v>0.9230444966112114</v>
+        <v>0.9230444966112126</v>
       </c>
       <c r="F21">
-        <v>0.8635988727120871</v>
+        <v>0.8635988727120884</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.010916801914045</v>
+        <v>1.010916801914046</v>
       </c>
       <c r="J21">
-        <v>0.9403134189459218</v>
+        <v>0.9403134189459231</v>
       </c>
       <c r="K21">
-        <v>0.9614893804250653</v>
+        <v>0.9614893804250665</v>
       </c>
       <c r="L21">
-        <v>0.9396468154103991</v>
+        <v>0.9396468154104002</v>
       </c>
       <c r="M21">
-        <v>0.8817244420164333</v>
+        <v>0.8817244420164343</v>
       </c>
       <c r="N21">
-        <v>0.9416487718562816</v>
+        <v>0.9416487718562828</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,16 +1241,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8939777226861765</v>
+        <v>0.8939777226861778</v>
       </c>
       <c r="D22">
-        <v>0.9359677829194785</v>
+        <v>0.9359677829194794</v>
       </c>
       <c r="E22">
-        <v>0.9124378522591711</v>
+        <v>0.9124378522591725</v>
       </c>
       <c r="F22">
-        <v>0.8473318493776978</v>
+        <v>0.8473318493776992</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1259,19 +1259,19 @@
         <v>1.006487131622149</v>
       </c>
       <c r="J22">
-        <v>0.9301960834189573</v>
+        <v>0.9301960834189584</v>
       </c>
       <c r="K22">
-        <v>0.9529242008111847</v>
+        <v>0.9529242008111858</v>
       </c>
       <c r="L22">
-        <v>0.9299692692508508</v>
+        <v>0.9299692692508522</v>
       </c>
       <c r="M22">
-        <v>0.8666849789866478</v>
+        <v>0.8666849789866492</v>
       </c>
       <c r="N22">
-        <v>0.9315170685523942</v>
+        <v>0.9315170685523957</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9006286580959795</v>
+        <v>0.9006286580959773</v>
       </c>
       <c r="D23">
-        <v>0.9410530974987782</v>
+        <v>0.9410530974987767</v>
       </c>
       <c r="E23">
-        <v>0.9181612905648737</v>
+        <v>0.9181612905648717</v>
       </c>
       <c r="F23">
-        <v>0.8561277971687756</v>
+        <v>0.8561277971687736</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.008879730242805</v>
+        <v>1.008879730242804</v>
       </c>
       <c r="J23">
-        <v>0.9356583235431248</v>
+        <v>0.9356583235431228</v>
       </c>
       <c r="K23">
-        <v>0.9575478701215627</v>
+        <v>0.9575478701215615</v>
       </c>
       <c r="L23">
-        <v>0.9351937090020652</v>
+        <v>0.935193709002063</v>
       </c>
       <c r="M23">
-        <v>0.874816246080953</v>
+        <v>0.8748162460809511</v>
       </c>
       <c r="N23">
-        <v>0.9369870656840658</v>
+        <v>0.9369870656840639</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9244370883752833</v>
+        <v>0.9244370883752844</v>
       </c>
       <c r="D24">
-        <v>0.9593088013114072</v>
+        <v>0.9593088013114083</v>
       </c>
       <c r="E24">
-        <v>0.9386837858235348</v>
+        <v>0.9386837858235363</v>
       </c>
       <c r="F24">
-        <v>0.8873415444452505</v>
+        <v>0.8873415444452522</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.01741087143718</v>
+        <v>1.017410871437181</v>
       </c>
       <c r="J24">
-        <v>0.9551897153786424</v>
+        <v>0.9551897153786435</v>
       </c>
       <c r="K24">
-        <v>0.9740902790924834</v>
+        <v>0.9740902790924846</v>
       </c>
       <c r="L24">
-        <v>0.9538806244526846</v>
+        <v>0.9538806244526858</v>
       </c>
       <c r="M24">
-        <v>0.9036851556904998</v>
+        <v>0.9036851556905013</v>
       </c>
       <c r="N24">
-        <v>0.9565461943362717</v>
+        <v>0.9565461943362729</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,16 +1364,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9484363546424589</v>
+        <v>0.9484363546424576</v>
       </c>
       <c r="D25">
-        <v>0.9777809965531665</v>
+        <v>0.977780996553165</v>
       </c>
       <c r="E25">
-        <v>0.9594157005291378</v>
+        <v>0.9594157005291369</v>
       </c>
       <c r="F25">
-        <v>0.9184594125893497</v>
+        <v>0.9184594125893477</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1382,19 +1382,19 @@
         <v>1.025933814807561</v>
       </c>
       <c r="J25">
-        <v>0.9748330026477559</v>
+        <v>0.9748330026477544</v>
       </c>
       <c r="K25">
-        <v>0.9907343132801962</v>
+        <v>0.9907343132801948</v>
       </c>
       <c r="L25">
-        <v>0.9726784983089409</v>
+        <v>0.97267849830894</v>
       </c>
       <c r="M25">
-        <v>0.9324708030929563</v>
+        <v>0.9324708030929545</v>
       </c>
       <c r="N25">
-        <v>0.9762173773264242</v>
+        <v>0.9762173773264222</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_19/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_19/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9654907643507809</v>
+        <v>0.9871479941966197</v>
       </c>
       <c r="D2">
-        <v>0.9909410204974296</v>
+        <v>1.007785067137374</v>
       </c>
       <c r="E2">
-        <v>0.9741685343264241</v>
+        <v>0.9952421579523119</v>
       </c>
       <c r="F2">
-        <v>0.9404165842304517</v>
+        <v>1.011054738825643</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.031922783209725</v>
+        <v>1.04046720902958</v>
       </c>
       <c r="J2">
-        <v>0.9887550190430523</v>
+        <v>1.009720021361977</v>
       </c>
       <c r="K2">
-        <v>1.00252802087389</v>
+        <v>1.019136998703363</v>
       </c>
       <c r="L2">
-        <v>0.9859998716858119</v>
+        <v>1.006768177471775</v>
       </c>
       <c r="M2">
-        <v>0.9527735354147144</v>
+        <v>1.022362182326297</v>
       </c>
       <c r="N2">
-        <v>0.9901591645818792</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.006893006129206</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.026270414366734</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.976937778272656</v>
+        <v>0.9924544170448482</v>
       </c>
       <c r="D3">
-        <v>0.9997854397836443</v>
+        <v>1.011595620096622</v>
       </c>
       <c r="E3">
-        <v>0.9840772148632382</v>
+        <v>0.9995290770043833</v>
       </c>
       <c r="F3">
-        <v>0.9551008209614459</v>
+        <v>1.014765816411716</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.035901098305475</v>
+        <v>1.041899462304373</v>
       </c>
       <c r="J3">
-        <v>0.998077515803948</v>
+        <v>1.01315291742734</v>
       </c>
       <c r="K3">
-        <v>1.010421066684091</v>
+        <v>1.022082251906634</v>
       </c>
       <c r="L3">
-        <v>0.9949179680096975</v>
+        <v>1.010167986926453</v>
       </c>
       <c r="M3">
-        <v>0.9663423658622405</v>
+        <v>1.025213188581316</v>
       </c>
       <c r="N3">
-        <v>0.999494900357481</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.008075505021963</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.0285268366789</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9839783851462995</v>
+        <v>0.9958005318475164</v>
       </c>
       <c r="D4">
-        <v>1.005228524489156</v>
+        <v>1.013997893892523</v>
       </c>
       <c r="E4">
-        <v>0.9901733654860821</v>
+        <v>1.002238270266473</v>
       </c>
       <c r="F4">
-        <v>0.9641161828189426</v>
+        <v>1.017118646471787</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.03832812846267</v>
+        <v>1.042785621821247</v>
       </c>
       <c r="J4">
-        <v>1.003800998517011</v>
+        <v>1.015312273914</v>
       </c>
       <c r="K4">
-        <v>1.015264252778431</v>
+        <v>1.023930261944129</v>
       </c>
       <c r="L4">
-        <v>1.000391854265674</v>
+        <v>1.012309756195145</v>
       </c>
       <c r="M4">
-        <v>0.9746678970722114</v>
+        <v>1.02701476316864</v>
       </c>
       <c r="N4">
-        <v>1.005226511072489</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.008818732289144</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.02995268491315</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9868587388353968</v>
+        <v>0.9971871373409686</v>
       </c>
       <c r="D5">
-        <v>1.007455842516654</v>
+        <v>1.014993152281758</v>
       </c>
       <c r="E5">
-        <v>0.9926675865989958</v>
+        <v>1.003362309632398</v>
       </c>
       <c r="F5">
-        <v>0.9678015032635578</v>
+        <v>1.01809661443728</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039316173292203</v>
+        <v>1.043148686399824</v>
       </c>
       <c r="J5">
-        <v>1.006139972752386</v>
+        <v>1.016205756009443</v>
       </c>
       <c r="K5">
-        <v>1.017242743187998</v>
+        <v>1.024693779802498</v>
       </c>
       <c r="L5">
-        <v>1.002628475881028</v>
+        <v>1.013196737078681</v>
       </c>
       <c r="M5">
-        <v>0.9780699145954502</v>
+        <v>1.027762176695264</v>
       </c>
       <c r="N5">
-        <v>1.007568806919562</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.009126111205112</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.030544221179765</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9873379146745882</v>
+        <v>0.9974187993719795</v>
       </c>
       <c r="D6">
-        <v>1.00782640305464</v>
+        <v>1.01515941563475</v>
       </c>
       <c r="E6">
-        <v>0.9930825358488206</v>
+        <v>1.003550183253759</v>
       </c>
       <c r="F6">
-        <v>0.9684144476851126</v>
+        <v>1.018260177523319</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039480255224132</v>
+        <v>1.043209097612137</v>
       </c>
       <c r="J6">
-        <v>1.006528934323712</v>
+        <v>1.016354950922903</v>
       </c>
       <c r="K6">
-        <v>1.017571711774973</v>
+        <v>1.024821205268734</v>
       </c>
       <c r="L6">
-        <v>1.003000395017315</v>
+        <v>1.013344892119024</v>
       </c>
       <c r="M6">
-        <v>0.9786356599486428</v>
+        <v>1.027887096744602</v>
       </c>
       <c r="N6">
-        <v>1.007958320860934</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.009177428862277</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.030643088406877</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9840171751390884</v>
+        <v>0.9958191376412836</v>
       </c>
       <c r="D7">
-        <v>1.005258518239084</v>
+        <v>1.014011249508467</v>
       </c>
       <c r="E7">
-        <v>0.9902069545987645</v>
+        <v>1.002253347547071</v>
       </c>
       <c r="F7">
-        <v>0.9641658237624453</v>
+        <v>1.017131757413854</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.03834145402268</v>
+        <v>1.042790510033562</v>
       </c>
       <c r="J7">
-        <v>1.003832507828013</v>
+        <v>1.015324268232453</v>
       </c>
       <c r="K7">
-        <v>1.015290908914405</v>
+        <v>1.023940516135379</v>
       </c>
       <c r="L7">
-        <v>1.000421986182323</v>
+        <v>1.012321660166017</v>
       </c>
       <c r="M7">
-        <v>0.9747137272927383</v>
+        <v>1.027024788829362</v>
       </c>
       <c r="N7">
-        <v>1.005258065130327</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.008822859212743</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.029960619669741</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9694405642387338</v>
+        <v>0.9889599672265974</v>
       </c>
       <c r="D8">
-        <v>0.9939919313524719</v>
+        <v>1.009086315434171</v>
       </c>
       <c r="E8">
-        <v>0.9775870564857631</v>
+        <v>0.9967047123628819</v>
       </c>
       <c r="F8">
-        <v>0.9454875736917551</v>
+        <v>1.012319230530181</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.033299692901625</v>
+        <v>1.040959804912648</v>
       </c>
       <c r="J8">
-        <v>0.9919739591781116</v>
+        <v>1.010893337364226</v>
       </c>
       <c r="K8">
-        <v>1.005253905520322</v>
+        <v>1.020144597548253</v>
       </c>
       <c r="L8">
-        <v>0.9890794349737341</v>
+        <v>1.007929506213955</v>
       </c>
       <c r="M8">
-        <v>0.9574603399455031</v>
+        <v>1.023334876150088</v>
       </c>
       <c r="N8">
-        <v>0.9933826759811479</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.007297287015616</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.027040251479163</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9404921245538199</v>
+        <v>0.9761622245437906</v>
       </c>
       <c r="D9">
-        <v>0.9716595572397532</v>
+        <v>0.9998971025280814</v>
       </c>
       <c r="E9">
-        <v>0.9525488128689409</v>
+        <v>0.9864030563977982</v>
       </c>
       <c r="F9">
-        <v>0.9081908437377857</v>
+        <v>1.003446209092598</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.023123225375349</v>
+        <v>1.03741107755847</v>
       </c>
       <c r="J9">
-        <v>0.9683366344523509</v>
+        <v>1.002585778887366</v>
       </c>
       <c r="K9">
-        <v>0.9852298065107452</v>
+        <v>1.012991849392522</v>
       </c>
       <c r="L9">
-        <v>0.9664617163112739</v>
+        <v>0.9997206551413281</v>
       </c>
       <c r="M9">
-        <v>0.9229725790590715</v>
+        <v>1.016483620313194</v>
       </c>
       <c r="N9">
-        <v>0.9697117835430379</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.004432591796969</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.021617816480309</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9181586749767537</v>
+        <v>0.9672756508999397</v>
       </c>
       <c r="D10">
-        <v>0.9544872958360328</v>
+        <v>0.9935316428834918</v>
       </c>
       <c r="E10">
-        <v>0.9332670813866873</v>
+        <v>0.9793070135091295</v>
       </c>
       <c r="F10">
-        <v>0.8791478755765318</v>
+        <v>0.9976043406443249</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.015167182094804</v>
+        <v>1.034882210754181</v>
       </c>
       <c r="J10">
-        <v>0.950042873384962</v>
+        <v>0.9968505989377789</v>
       </c>
       <c r="K10">
-        <v>0.9697299717892695</v>
+        <v>1.008018675952148</v>
       </c>
       <c r="L10">
-        <v>0.9489556601703454</v>
+        <v>0.9940602150685528</v>
       </c>
       <c r="M10">
-        <v>0.8961056097433063</v>
+        <v>1.012016984598651</v>
       </c>
       <c r="N10">
-        <v>0.9513920432366094</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.002467508953035</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.018135408832173</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9074894808683138</v>
+        <v>0.9647728248762276</v>
       </c>
       <c r="D11">
-        <v>0.9463057842151972</v>
+        <v>0.9918176512144666</v>
       </c>
       <c r="E11">
-        <v>0.9240699498330524</v>
+        <v>0.9774742571341893</v>
       </c>
       <c r="F11">
-        <v>0.865164042524132</v>
+        <v>0.9979066678009821</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.011344050402005</v>
+        <v>1.03430382891876</v>
       </c>
       <c r="J11">
-        <v>0.9412903571358227</v>
+        <v>0.9956882493712294</v>
       </c>
       <c r="K11">
-        <v>0.962316674624025</v>
+        <v>1.006895542109108</v>
       </c>
       <c r="L11">
-        <v>0.940581432173438</v>
+        <v>0.9928338567272074</v>
       </c>
       <c r="M11">
-        <v>0.883171856992476</v>
+        <v>1.012868169569984</v>
       </c>
       <c r="N11">
-        <v>0.9426270974104687</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.00219886686155</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.019255150672402</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9033418974766095</v>
+        <v>0.9643459850695744</v>
       </c>
       <c r="D12">
-        <v>0.9431295511592361</v>
+        <v>0.991569649617602</v>
       </c>
       <c r="E12">
-        <v>0.9204974355105203</v>
+        <v>0.9772548172524154</v>
       </c>
       <c r="F12">
-        <v>0.8597057074019155</v>
+        <v>0.9989920403636727</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.009854783513706</v>
+        <v>1.034283584047396</v>
       </c>
       <c r="J12">
-        <v>0.937885941723586</v>
+        <v>0.9957398755571828</v>
       </c>
       <c r="K12">
-        <v>0.9594338999509783</v>
+        <v>1.00686016391591</v>
       </c>
       <c r="L12">
-        <v>0.9373245981671025</v>
+        <v>0.9928311493887988</v>
       </c>
       <c r="M12">
-        <v>0.8781244191933898</v>
+        <v>1.014138576800526</v>
       </c>
       <c r="N12">
-        <v>0.9392178473378544</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.002321013764612</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.020592696373653</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9042406155294972</v>
+        <v>0.9654838364819801</v>
       </c>
       <c r="D13">
-        <v>0.9438175818657298</v>
+        <v>0.9924294585399472</v>
       </c>
       <c r="E13">
-        <v>0.9212714052987773</v>
+        <v>0.9782547853195476</v>
       </c>
       <c r="F13">
-        <v>0.8608895603436794</v>
+        <v>1.00076923423396</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.010177616041495</v>
+        <v>1.034695336015425</v>
       </c>
       <c r="J13">
-        <v>0.9386237126065394</v>
+        <v>0.9967261185670184</v>
       </c>
       <c r="K13">
-        <v>0.9600585862385066</v>
+        <v>1.007658622906092</v>
       </c>
       <c r="L13">
-        <v>0.9380303622337863</v>
+        <v>0.9937653134571025</v>
       </c>
       <c r="M13">
-        <v>0.8792190938124521</v>
+        <v>1.015837727321899</v>
       </c>
       <c r="N13">
-        <v>0.9399566659400852</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.002750078651555</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.022217265412934</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9071506508423247</v>
+        <v>0.9669642713429482</v>
       </c>
       <c r="D14">
-        <v>0.9460462146628914</v>
+        <v>0.9935146241266001</v>
       </c>
       <c r="E14">
-        <v>0.9237780379841672</v>
+        <v>0.9794854254678576</v>
       </c>
       <c r="F14">
-        <v>0.8647186199152782</v>
+        <v>1.002291480522256</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.011222446363597</v>
+        <v>1.035169653058092</v>
       </c>
       <c r="J14">
-        <v>0.9410122775041594</v>
+        <v>0.9978167399950282</v>
       </c>
       <c r="K14">
-        <v>0.9620811865338597</v>
+        <v>1.008577021291667</v>
       </c>
       <c r="L14">
-        <v>0.9403153968150498</v>
+        <v>0.9948223635965596</v>
       </c>
       <c r="M14">
-        <v>0.8827599401598236</v>
+        <v>1.017187224192186</v>
       </c>
       <c r="N14">
-        <v>0.9423486228738323</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.003180542461579</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.023459593965944</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9089179155343129</v>
+        <v>0.9676813984425281</v>
       </c>
       <c r="D15">
-        <v>0.9474002519969449</v>
+        <v>0.9940326856364364</v>
       </c>
       <c r="E15">
-        <v>0.9253007051184385</v>
+        <v>0.9800656348371136</v>
       </c>
       <c r="F15">
-        <v>0.8670409167935085</v>
+        <v>1.002864669933597</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.011856586500698</v>
+        <v>1.035385688919672</v>
       </c>
       <c r="J15">
-        <v>0.9424626039591503</v>
+        <v>0.9983036811973132</v>
       </c>
       <c r="K15">
-        <v>0.9633094082840492</v>
+        <v>1.008995462110746</v>
       </c>
       <c r="L15">
-        <v>0.9417029255475323</v>
+        <v>0.9952994560025101</v>
       </c>
       <c r="M15">
-        <v>0.8849075935695115</v>
+        <v>1.017661135821357</v>
       </c>
       <c r="N15">
-        <v>0.943801008958744</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.00335892831715</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.023872136572578</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9188430344247801</v>
+        <v>0.971201149939909</v>
       </c>
       <c r="D16">
-        <v>0.9550126057822875</v>
+        <v>0.9965432378128911</v>
       </c>
       <c r="E16">
-        <v>0.9338573557981796</v>
+        <v>0.9828472086405379</v>
       </c>
       <c r="F16">
-        <v>0.8800422117948165</v>
+        <v>1.005023091876464</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.015411983493058</v>
+        <v>1.036385151152948</v>
       </c>
       <c r="J16">
-        <v>0.9506040287276584</v>
+        <v>1.000525262938737</v>
       </c>
       <c r="K16">
-        <v>0.9702053423295491</v>
+        <v>1.010938324729095</v>
       </c>
       <c r="L16">
-        <v>0.9494926075039748</v>
+        <v>0.9974956140850725</v>
       </c>
       <c r="M16">
-        <v>0.8969328842985022</v>
+        <v>1.019265828280392</v>
       </c>
       <c r="N16">
-        <v>0.9519539954842576</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.00410052453898</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.025101303858017</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9247805731572891</v>
+        <v>0.9731372312764333</v>
       </c>
       <c r="D17">
-        <v>0.9595727225128863</v>
+        <v>0.9979097355825316</v>
       </c>
       <c r="E17">
-        <v>0.9389802187944718</v>
+        <v>0.9843486292299369</v>
       </c>
       <c r="F17">
-        <v>0.8877891094749709</v>
+        <v>1.005890040632173</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.017533476314581</v>
+        <v>1.036904104377863</v>
       </c>
       <c r="J17">
-        <v>0.9554712080270772</v>
+        <v>1.001668335601723</v>
       </c>
       <c r="K17">
-        <v>0.9743287701575917</v>
+        <v>1.011954514236553</v>
       </c>
       <c r="L17">
-        <v>0.9541499909957387</v>
+        <v>0.9986367641191888</v>
       </c>
       <c r="M17">
-        <v>0.9040991897834657</v>
+        <v>1.019795578291403</v>
       </c>
       <c r="N17">
-        <v>0.9568280867365548</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.004447529616912</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.025389425362344</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9281503159824691</v>
+        <v>0.9738377193561857</v>
       </c>
       <c r="D18">
-        <v>0.962162668059988</v>
+        <v>0.9983758482497896</v>
       </c>
       <c r="E18">
-        <v>0.9418888452653442</v>
+        <v>0.9848345433748688</v>
       </c>
       <c r="F18">
-        <v>0.8921762317659466</v>
+        <v>1.005547389693203</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.018735439664686</v>
+        <v>1.037038401928885</v>
       </c>
       <c r="J18">
-        <v>0.9582322887593232</v>
+        <v>1.00192689002844</v>
       </c>
       <c r="K18">
-        <v>0.9766681306313466</v>
+        <v>1.012222675683924</v>
       </c>
       <c r="L18">
-        <v>0.9567921686929517</v>
+        <v>0.998920289806405</v>
       </c>
       <c r="M18">
-        <v>0.9081576818926546</v>
+        <v>1.019271050100182</v>
       </c>
       <c r="N18">
-        <v>0.9595930885201412</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.004462030002099</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.02473371701688</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9292843122336238</v>
+        <v>0.9733608409814102</v>
       </c>
       <c r="D19">
-        <v>0.9630345489532572</v>
+        <v>0.9979827818771622</v>
       </c>
       <c r="E19">
-        <v>0.9428678587838414</v>
+        <v>0.9843496825933311</v>
       </c>
       <c r="F19">
-        <v>0.8936511228011337</v>
+        <v>1.003985637009538</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.019139572302095</v>
+        <v>1.036804765063635</v>
       </c>
       <c r="J19">
-        <v>0.9591612511644657</v>
+        <v>1.001328678586033</v>
       </c>
       <c r="K19">
-        <v>0.9774552308573775</v>
+        <v>1.011771695281056</v>
       </c>
       <c r="L19">
-        <v>0.9576811399335112</v>
+        <v>0.9983781147804502</v>
       </c>
       <c r="M19">
-        <v>0.9095221045214265</v>
+        <v>1.017671749853915</v>
       </c>
       <c r="N19">
-        <v>0.9605233701584526</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.004160118746821</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.023138037234705</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9241534169001744</v>
+        <v>0.9695974604834678</v>
       </c>
       <c r="D20">
-        <v>0.9590908493919756</v>
+        <v>0.9951943737393725</v>
       </c>
       <c r="E20">
-        <v>0.9384389796933029</v>
+        <v>0.9811586904505012</v>
       </c>
       <c r="F20">
-        <v>0.8869718634610698</v>
+        <v>0.9991360310659883</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.017309604821549</v>
+        <v>1.035549588353857</v>
       </c>
       <c r="J20">
-        <v>0.9549572340820732</v>
+        <v>0.9983528332440017</v>
       </c>
       <c r="K20">
-        <v>0.9738933133643028</v>
+        <v>1.009322253926083</v>
       </c>
       <c r="L20">
-        <v>0.9536581585630509</v>
+        <v>0.995541134764979</v>
       </c>
       <c r="M20">
-        <v>0.9033431715333057</v>
+        <v>1.013194089357043</v>
       </c>
       <c r="N20">
-        <v>0.9563133828895954</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.00298300423723</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.019056173436086</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9062991541682192</v>
+        <v>0.9625749460408355</v>
       </c>
       <c r="D21">
-        <v>0.945393975535743</v>
+        <v>0.9901537960378837</v>
       </c>
       <c r="E21">
-        <v>0.9230444966112126</v>
+        <v>0.975536558167019</v>
       </c>
       <c r="F21">
-        <v>0.8635988727120884</v>
+        <v>0.9941660107755969</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.010916801914046</v>
+        <v>1.033494070582828</v>
       </c>
       <c r="J21">
-        <v>0.9403134189459231</v>
+        <v>0.9937252314748491</v>
       </c>
       <c r="K21">
-        <v>0.9614893804250665</v>
+        <v>1.00532414005525</v>
       </c>
       <c r="L21">
-        <v>0.9396468154104002</v>
+        <v>0.990996707980068</v>
       </c>
       <c r="M21">
-        <v>0.8817244420164343</v>
+        <v>1.009258759270349</v>
       </c>
       <c r="N21">
-        <v>0.9416487718562828</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.001372931913504</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.015899643778407</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8939777226861778</v>
+        <v>0.9581159131672047</v>
       </c>
       <c r="D22">
-        <v>0.9359677829194794</v>
+        <v>0.9869614751835578</v>
       </c>
       <c r="E22">
-        <v>0.9124378522591725</v>
+        <v>0.9719861090277742</v>
       </c>
       <c r="F22">
-        <v>0.8473318493776992</v>
+        <v>0.9911503081504188</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.006487131622149</v>
+        <v>1.032181795037725</v>
       </c>
       <c r="J22">
-        <v>0.9301960834189584</v>
+        <v>0.9908112321984793</v>
       </c>
       <c r="K22">
-        <v>0.9529242008111858</v>
+        <v>1.002795729708762</v>
       </c>
       <c r="L22">
-        <v>0.9299692692508522</v>
+        <v>0.9881337310357574</v>
       </c>
       <c r="M22">
-        <v>0.8666849789866492</v>
+        <v>1.006899141604918</v>
       </c>
       <c r="N22">
-        <v>0.9315170685523957</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.000366063606811</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.01403209523524</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9006286580959773</v>
+        <v>0.9604929676922294</v>
       </c>
       <c r="D23">
-        <v>0.9410530974987767</v>
+        <v>0.9886628762135249</v>
       </c>
       <c r="E23">
-        <v>0.9181612905648717</v>
+        <v>0.973877846120724</v>
       </c>
       <c r="F23">
-        <v>0.8561277971687736</v>
+        <v>0.9927561444761772</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.008879730242804</v>
+        <v>1.032882821835808</v>
       </c>
       <c r="J23">
-        <v>0.9356583235431228</v>
+        <v>0.9923649490880007</v>
       </c>
       <c r="K23">
-        <v>0.9575478701215615</v>
+        <v>1.00414421309923</v>
       </c>
       <c r="L23">
-        <v>0.935193709002063</v>
+        <v>0.9896598925006529</v>
       </c>
       <c r="M23">
-        <v>0.8748162460809511</v>
+        <v>1.008156308121343</v>
       </c>
       <c r="N23">
-        <v>0.9369870656840639</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.000902945976444</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.015027095862886</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9244370883752844</v>
+        <v>0.9695668021755177</v>
       </c>
       <c r="D24">
-        <v>0.9593088013114083</v>
+        <v>0.9951650603972483</v>
       </c>
       <c r="E24">
-        <v>0.9386837858235363</v>
+        <v>0.9811193227498999</v>
       </c>
       <c r="F24">
-        <v>0.8873415444452522</v>
+        <v>0.998924103402049</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.017410871437181</v>
+        <v>1.03552635654653</v>
       </c>
       <c r="J24">
-        <v>0.9551897153786435</v>
+        <v>0.9982888641887382</v>
       </c>
       <c r="K24">
-        <v>0.9740902790924846</v>
+        <v>1.009277618358483</v>
       </c>
       <c r="L24">
-        <v>0.9538806244526858</v>
+        <v>0.9954863205670115</v>
       </c>
       <c r="M24">
-        <v>0.9036851556905013</v>
+        <v>1.012970139370857</v>
       </c>
       <c r="N24">
-        <v>0.9565461943362729</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.002949234652055</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.018837050685962</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9484363546424576</v>
+        <v>0.9795610871374176</v>
       </c>
       <c r="D25">
-        <v>0.977780996553165</v>
+        <v>1.002337016365778</v>
       </c>
       <c r="E25">
-        <v>0.9594157005291369</v>
+        <v>0.9891326380777399</v>
       </c>
       <c r="F25">
-        <v>0.9184594125893477</v>
+        <v>1.0057898072037</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.025933814807561</v>
+        <v>1.038368518652185</v>
       </c>
       <c r="J25">
-        <v>0.9748330026477544</v>
+        <v>1.004796438803855</v>
       </c>
       <c r="K25">
-        <v>0.9907343132801948</v>
+        <v>1.01489916117202</v>
       </c>
       <c r="L25">
-        <v>0.97267849830894</v>
+        <v>1.001902031439006</v>
       </c>
       <c r="M25">
-        <v>0.9324708030929545</v>
+        <v>1.018298903868763</v>
       </c>
       <c r="N25">
-        <v>0.9762173773264222</v>
+        <v>1.005195355546547</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.023054529142743</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_19/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_19/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9871479941966197</v>
+        <v>0.989058893357598</v>
       </c>
       <c r="D2">
-        <v>1.007785067137374</v>
+        <v>1.009544168891719</v>
       </c>
       <c r="E2">
-        <v>0.9952421579523119</v>
+        <v>0.9969198404048973</v>
       </c>
       <c r="F2">
-        <v>1.011054738825643</v>
+        <v>1.011882545989607</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.04046720902958</v>
+        <v>1.041359833629642</v>
       </c>
       <c r="J2">
-        <v>1.009720021361977</v>
+        <v>1.011571849374564</v>
       </c>
       <c r="K2">
-        <v>1.019136998703363</v>
+        <v>1.020872120557017</v>
       </c>
       <c r="L2">
-        <v>1.006768177471775</v>
+        <v>1.008422254193932</v>
       </c>
       <c r="M2">
-        <v>1.022362182326297</v>
+        <v>1.023178783478911</v>
       </c>
       <c r="N2">
-        <v>1.006893006129206</v>
+        <v>1.010099055150526</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.026270414366734</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.026916712219798</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.017699209585124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9924544170448482</v>
+        <v>0.9939347400715693</v>
       </c>
       <c r="D3">
-        <v>1.011595620096622</v>
+        <v>1.012877688454392</v>
       </c>
       <c r="E3">
-        <v>0.9995290770043833</v>
+        <v>1.000831406644621</v>
       </c>
       <c r="F3">
-        <v>1.014765816411716</v>
+        <v>1.015406243515807</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.041899462304373</v>
+        <v>1.042550756834536</v>
       </c>
       <c r="J3">
-        <v>1.01315291742734</v>
+        <v>1.01459212700529</v>
       </c>
       <c r="K3">
-        <v>1.022082251906634</v>
+        <v>1.023348406303796</v>
       </c>
       <c r="L3">
-        <v>1.010167986926453</v>
+        <v>1.011453660509431</v>
       </c>
       <c r="M3">
-        <v>1.025213188581316</v>
+        <v>1.02584572168903</v>
       </c>
       <c r="N3">
-        <v>1.008075505021963</v>
+        <v>1.010923359398671</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.0285268366789</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.029027452542662</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.018254979701996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9958005318475164</v>
+        <v>0.9970140589024571</v>
       </c>
       <c r="D4">
-        <v>1.013997893892523</v>
+        <v>1.014982453009867</v>
       </c>
       <c r="E4">
-        <v>1.002238270266473</v>
+        <v>1.003307645036046</v>
       </c>
       <c r="F4">
-        <v>1.017118646471787</v>
+        <v>1.017643202811006</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.042785621821247</v>
+        <v>1.043286147882883</v>
       </c>
       <c r="J4">
-        <v>1.015312273914</v>
+        <v>1.016494454998115</v>
       </c>
       <c r="K4">
-        <v>1.023930261944129</v>
+        <v>1.024903354444818</v>
       </c>
       <c r="L4">
-        <v>1.012309756195145</v>
+        <v>1.013366312950412</v>
       </c>
       <c r="M4">
-        <v>1.02701476316864</v>
+        <v>1.027533253112852</v>
       </c>
       <c r="N4">
-        <v>1.008818732289144</v>
+        <v>1.01144228162266</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.02995268491315</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.03036304094093</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.018600960272747</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9971871373409686</v>
+        <v>0.9982911565764897</v>
       </c>
       <c r="D5">
-        <v>1.014993152281758</v>
+        <v>1.015855168274834</v>
       </c>
       <c r="E5">
-        <v>1.003362309632398</v>
+        <v>1.0043359903061</v>
       </c>
       <c r="F5">
-        <v>1.01809661443728</v>
+        <v>1.018573665083235</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.043148686399824</v>
+        <v>1.043587050407769</v>
       </c>
       <c r="J5">
-        <v>1.016205756009443</v>
+        <v>1.017282137388286</v>
       </c>
       <c r="K5">
-        <v>1.024693779802498</v>
+        <v>1.025546029599639</v>
       </c>
       <c r="L5">
-        <v>1.013196737078681</v>
+        <v>1.01415906969705</v>
       </c>
       <c r="M5">
-        <v>1.027762176695264</v>
+        <v>1.028233860599785</v>
       </c>
       <c r="N5">
-        <v>1.009126111205112</v>
+        <v>1.011657079820796</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.030544221179765</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.030917532515759</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.018743226409576</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9974187993719795</v>
+        <v>0.9985045825119174</v>
       </c>
       <c r="D6">
-        <v>1.01515941563475</v>
+        <v>1.016001000488635</v>
       </c>
       <c r="E6">
-        <v>1.003550183253759</v>
+        <v>1.004507924082261</v>
       </c>
       <c r="F6">
-        <v>1.018260177523319</v>
+        <v>1.018729320266174</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.043209097612137</v>
+        <v>1.043637094027384</v>
       </c>
       <c r="J6">
-        <v>1.016354950922903</v>
+        <v>1.017413696703618</v>
       </c>
       <c r="K6">
-        <v>1.024821205268734</v>
+        <v>1.025653299939921</v>
       </c>
       <c r="L6">
-        <v>1.013344892119024</v>
+        <v>1.014291523676451</v>
       </c>
       <c r="M6">
-        <v>1.027887096744602</v>
+        <v>1.028350986382467</v>
       </c>
       <c r="N6">
-        <v>1.009177428862277</v>
+        <v>1.011692951474693</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.030643088406877</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.031010230967727</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.018766929080639</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9958191376412836</v>
+        <v>0.9970434948252654</v>
       </c>
       <c r="D7">
-        <v>1.014011249508467</v>
+        <v>1.015003402827472</v>
       </c>
       <c r="E7">
-        <v>1.002253347547071</v>
+        <v>1.003332834051706</v>
       </c>
       <c r="F7">
-        <v>1.017131757413854</v>
+        <v>1.017660992623505</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.042790510033562</v>
+        <v>1.043294898958317</v>
       </c>
       <c r="J7">
-        <v>1.015324268232453</v>
+        <v>1.016517013354087</v>
       </c>
       <c r="K7">
-        <v>1.023940516135379</v>
+        <v>1.024921118744224</v>
       </c>
       <c r="L7">
-        <v>1.012321660166017</v>
+        <v>1.013388212443272</v>
       </c>
       <c r="M7">
-        <v>1.027024788829362</v>
+        <v>1.027547905811089</v>
       </c>
       <c r="N7">
-        <v>1.008822859212743</v>
+        <v>1.011475280975728</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.029960619669741</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.030374637735207</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.018605781745288</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9889599672265974</v>
+        <v>0.9907610004196196</v>
       </c>
       <c r="D8">
-        <v>1.009086315434171</v>
+        <v>1.010710591373335</v>
       </c>
       <c r="E8">
-        <v>0.9967047123628819</v>
+        <v>0.9982889229295544</v>
       </c>
       <c r="F8">
-        <v>1.012319230530181</v>
+        <v>1.013099091216884</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.040959804912648</v>
+        <v>1.041784327295374</v>
       </c>
       <c r="J8">
-        <v>1.010893337364226</v>
+        <v>1.012640643637685</v>
       </c>
       <c r="K8">
-        <v>1.020144597548253</v>
+        <v>1.021747409373285</v>
       </c>
       <c r="L8">
-        <v>1.007929506213955</v>
+        <v>1.009492121835633</v>
       </c>
       <c r="M8">
-        <v>1.023334876150088</v>
+        <v>1.024104502894587</v>
       </c>
       <c r="N8">
-        <v>1.007297287015616</v>
+        <v>1.010472694299352</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.027040251479163</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.027649370834649</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.017899014937603</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9761622245437906</v>
+        <v>0.9790393736038415</v>
       </c>
       <c r="D9">
-        <v>0.9998971025280814</v>
+        <v>1.002698271642628</v>
       </c>
       <c r="E9">
-        <v>0.9864030563977982</v>
+        <v>0.988922963359893</v>
       </c>
       <c r="F9">
-        <v>1.003446209092598</v>
+        <v>1.004695923678488</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.03741107755847</v>
+        <v>1.038829362545222</v>
       </c>
       <c r="J9">
-        <v>1.002585778887366</v>
+        <v>1.005354655014374</v>
       </c>
       <c r="K9">
-        <v>1.012991849392522</v>
+        <v>1.015747722441849</v>
       </c>
       <c r="L9">
-        <v>0.9997206551413281</v>
+        <v>1.002198351261824</v>
       </c>
       <c r="M9">
-        <v>1.016483620313194</v>
+        <v>1.017713269490028</v>
       </c>
       <c r="N9">
-        <v>1.004432591796969</v>
+        <v>1.008493259194384</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.021617816480309</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.022591027053632</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.016535943235184</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9672756508999397</v>
+        <v>0.9709824745194876</v>
       </c>
       <c r="D10">
-        <v>0.9935316428834918</v>
+        <v>0.9972088548466376</v>
       </c>
       <c r="E10">
-        <v>0.9793070135091295</v>
+        <v>0.9825468592678883</v>
       </c>
       <c r="F10">
-        <v>0.9976043406443249</v>
+        <v>0.9992160831911524</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.034882210754181</v>
+        <v>1.036740897444788</v>
       </c>
       <c r="J10">
-        <v>0.9968505989377789</v>
+        <v>1.000396632898184</v>
       </c>
       <c r="K10">
-        <v>1.008018675952148</v>
+        <v>1.011628687815006</v>
       </c>
       <c r="L10">
-        <v>0.9940602150685528</v>
+        <v>0.9972385516605735</v>
       </c>
       <c r="M10">
-        <v>1.012016984598651</v>
+        <v>1.013599505937681</v>
       </c>
       <c r="N10">
-        <v>1.002467508953035</v>
+        <v>1.007271263023699</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.018135408832173</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.019387825737181</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.015596314833193</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9647728248762276</v>
+        <v>0.9687428704397364</v>
       </c>
       <c r="D11">
-        <v>0.9918176512144666</v>
+        <v>0.9957579498903242</v>
       </c>
       <c r="E11">
-        <v>0.9774742571341893</v>
+        <v>0.9809339746080985</v>
       </c>
       <c r="F11">
-        <v>0.9979066678009821</v>
+        <v>0.9996190979238467</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.03430382891876</v>
+        <v>1.03629413752079</v>
       </c>
       <c r="J11">
-        <v>0.9956882493712294</v>
+        <v>0.9994763817310786</v>
       </c>
       <c r="K11">
-        <v>1.006895542109108</v>
+        <v>1.010760310926142</v>
       </c>
       <c r="L11">
-        <v>0.9928338567272074</v>
+        <v>0.9962246335019255</v>
       </c>
       <c r="M11">
-        <v>1.012868169569984</v>
+        <v>1.014548201076711</v>
       </c>
       <c r="N11">
-        <v>1.00219886686155</v>
+        <v>1.007343998122181</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.019255150672402</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.020584037409487</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.015461092636002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9643459850695744</v>
+        <v>0.9683494271417726</v>
       </c>
       <c r="D12">
-        <v>0.991569649617602</v>
+        <v>0.9955431584808674</v>
       </c>
       <c r="E12">
-        <v>0.9772548172524154</v>
+        <v>0.9807342977055208</v>
       </c>
       <c r="F12">
-        <v>0.9989920403636727</v>
+        <v>1.000708767878015</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.034283584047396</v>
+        <v>1.036290197512177</v>
       </c>
       <c r="J12">
-        <v>0.9957398755571828</v>
+        <v>0.9995564393761709</v>
       </c>
       <c r="K12">
-        <v>1.00686016391591</v>
+        <v>1.010756245571838</v>
       </c>
       <c r="L12">
-        <v>0.9928311493887988</v>
+        <v>0.9962401460271652</v>
       </c>
       <c r="M12">
-        <v>1.014138576800526</v>
+        <v>1.015822401599983</v>
       </c>
       <c r="N12">
-        <v>1.002321013764612</v>
+        <v>1.00753758562562</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.020592696373653</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.021924115537498</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.015503979900704</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9654838364819801</v>
+        <v>0.9693300444065706</v>
       </c>
       <c r="D13">
-        <v>0.9924294585399472</v>
+        <v>0.9962498839266971</v>
       </c>
       <c r="E13">
-        <v>0.9782547853195476</v>
+        <v>0.981587742165669</v>
       </c>
       <c r="F13">
-        <v>1.00076923423396</v>
+        <v>1.002410875957884</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.034695336015425</v>
+        <v>1.036624807818401</v>
       </c>
       <c r="J13">
-        <v>0.9967261185670184</v>
+        <v>1.000394013122323</v>
       </c>
       <c r="K13">
-        <v>1.007658622906092</v>
+        <v>1.011405007914555</v>
       </c>
       <c r="L13">
-        <v>0.9937653134571025</v>
+        <v>0.9970311504561922</v>
       </c>
       <c r="M13">
-        <v>1.015837727321899</v>
+        <v>1.017448153482734</v>
       </c>
       <c r="N13">
-        <v>1.002750078651555</v>
+        <v>1.007797723169218</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.022217265412934</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.023490318482563</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.015684979582012</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9669642713429482</v>
+        <v>0.9706200641384103</v>
       </c>
       <c r="D14">
-        <v>0.9935146241266001</v>
+        <v>0.9971490502813467</v>
       </c>
       <c r="E14">
-        <v>0.9794854254678576</v>
+        <v>0.9826464759982538</v>
       </c>
       <c r="F14">
-        <v>1.002291480522256</v>
+        <v>1.00384777261235</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.035169653058092</v>
+        <v>1.037005561949565</v>
       </c>
       <c r="J14">
-        <v>0.9978167399950282</v>
+        <v>1.00130578684386</v>
       </c>
       <c r="K14">
-        <v>1.008577021291667</v>
+        <v>1.012141972095164</v>
       </c>
       <c r="L14">
-        <v>0.9948223635965596</v>
+        <v>0.9979206559431147</v>
       </c>
       <c r="M14">
-        <v>1.017187224192186</v>
+        <v>1.018714362692288</v>
       </c>
       <c r="N14">
-        <v>1.003180542461579</v>
+        <v>1.008006575660778</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.023459593965944</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.024666641794165</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.015871042772684</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9676813984425281</v>
+        <v>0.9712491642178561</v>
       </c>
       <c r="D15">
-        <v>0.9940326856364364</v>
+        <v>0.9975806240799273</v>
       </c>
       <c r="E15">
-        <v>0.9800656348371136</v>
+        <v>0.9831487550884488</v>
       </c>
       <c r="F15">
-        <v>1.002864669933597</v>
+        <v>1.004382686701029</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.035385688919672</v>
+        <v>1.037178122487571</v>
       </c>
       <c r="J15">
-        <v>0.9983036811973132</v>
+        <v>1.001710263697063</v>
       </c>
       <c r="K15">
-        <v>1.008995462110746</v>
+        <v>1.012476128724906</v>
       </c>
       <c r="L15">
-        <v>0.9952994560025101</v>
+        <v>0.9983218758945754</v>
       </c>
       <c r="M15">
-        <v>1.017661135821357</v>
+        <v>1.019150951702249</v>
       </c>
       <c r="N15">
-        <v>1.00335892831715</v>
+        <v>1.008080341970094</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.023872136572578</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.025049653413121</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.015950553383867</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.971201149939909</v>
+        <v>0.9743690226377375</v>
       </c>
       <c r="D16">
-        <v>0.9965432378128911</v>
+        <v>0.9996917880690114</v>
       </c>
       <c r="E16">
-        <v>0.9828472086405379</v>
+        <v>0.9855834450311148</v>
       </c>
       <c r="F16">
-        <v>1.005023091876464</v>
+        <v>1.006371561278703</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.036385151152948</v>
+        <v>1.03797688330006</v>
       </c>
       <c r="J16">
-        <v>1.000525262938737</v>
+        <v>1.003557631853751</v>
       </c>
       <c r="K16">
-        <v>1.010938324729095</v>
+        <v>1.0140299154926</v>
       </c>
       <c r="L16">
-        <v>0.9974956140850725</v>
+        <v>1.000180507101021</v>
       </c>
       <c r="M16">
-        <v>1.019265828280392</v>
+        <v>1.020590377764586</v>
       </c>
       <c r="N16">
-        <v>1.00410052453898</v>
+        <v>1.00835529263573</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.025101303858017</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+        <v>1.02614822873357</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.016298152568365</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9731372312764333</v>
+        <v>0.9761099538118151</v>
       </c>
       <c r="D17">
-        <v>0.9979097355825316</v>
+        <v>1.000857418061223</v>
       </c>
       <c r="E17">
-        <v>0.9843486292299369</v>
+        <v>0.9869187896687447</v>
       </c>
       <c r="F17">
-        <v>1.005890040632173</v>
+        <v>1.007157571851484</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.036904104377863</v>
+        <v>1.038394908642321</v>
       </c>
       <c r="J17">
-        <v>1.001668335601723</v>
+        <v>1.0045181913323</v>
       </c>
       <c r="K17">
-        <v>1.011954514236553</v>
+        <v>1.014850430316555</v>
       </c>
       <c r="L17">
-        <v>0.9986367641191888</v>
+        <v>1.001160134465128</v>
       </c>
       <c r="M17">
-        <v>1.019795578291403</v>
+        <v>1.021041256092974</v>
       </c>
       <c r="N17">
-        <v>1.004447529616912</v>
+        <v>1.008489741006643</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.025389425362344</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
+        <v>1.026374110050507</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.01647032437147</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9738377193561857</v>
+        <v>0.976761570033888</v>
       </c>
       <c r="D18">
-        <v>0.9983758482497896</v>
+        <v>1.001268370333764</v>
       </c>
       <c r="E18">
-        <v>0.9848345433748688</v>
+        <v>0.987368391853863</v>
       </c>
       <c r="F18">
-        <v>1.005547389693203</v>
+        <v>1.006798397886387</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.037038401928885</v>
+        <v>1.038501645627407</v>
       </c>
       <c r="J18">
-        <v>1.00192689002844</v>
+        <v>1.004732185112095</v>
       </c>
       <c r="K18">
-        <v>1.012222675683924</v>
+        <v>1.015065245911345</v>
       </c>
       <c r="L18">
-        <v>0.998920289806405</v>
+        <v>1.001408784707255</v>
       </c>
       <c r="M18">
-        <v>1.019271050100182</v>
+        <v>1.020500804968259</v>
       </c>
       <c r="N18">
-        <v>1.004462030002099</v>
+        <v>1.008457073385112</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.02473371701688</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
+        <v>1.025706022529904</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.016492130586675</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9733608409814102</v>
+        <v>0.976366495282342</v>
       </c>
       <c r="D19">
-        <v>0.9979827818771622</v>
+        <v>1.000953274140475</v>
       </c>
       <c r="E19">
-        <v>0.9843496825933311</v>
+        <v>0.9869630267374607</v>
       </c>
       <c r="F19">
-        <v>1.003985637009538</v>
+        <v>1.005278572561775</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.036804765063635</v>
+        <v>1.038307537509761</v>
       </c>
       <c r="J19">
-        <v>1.001328678586033</v>
+        <v>1.00421302427149</v>
       </c>
       <c r="K19">
-        <v>1.011771695281056</v>
+        <v>1.014691117895535</v>
       </c>
       <c r="L19">
-        <v>0.9983781147804502</v>
+        <v>1.000944880080769</v>
       </c>
       <c r="M19">
-        <v>1.017671749853915</v>
+        <v>1.018942750915751</v>
       </c>
       <c r="N19">
-        <v>1.004160118746821</v>
+        <v>1.00824105565933</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.023138037234705</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
+        <v>1.024143293060596</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.016366699512441</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9695974604834678</v>
+        <v>0.9730490982983152</v>
       </c>
       <c r="D20">
-        <v>0.9951943737393725</v>
+        <v>0.9986137888909662</v>
       </c>
       <c r="E20">
-        <v>0.9811586904505012</v>
+        <v>0.9841749537386654</v>
       </c>
       <c r="F20">
-        <v>0.9991360310659883</v>
+        <v>1.000636364045214</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.035549588353857</v>
+        <v>1.037278717231287</v>
       </c>
       <c r="J20">
-        <v>0.9983528332440017</v>
+        <v>1.001659974057526</v>
       </c>
       <c r="K20">
-        <v>1.009322253926083</v>
+        <v>1.012681057023333</v>
       </c>
       <c r="L20">
-        <v>0.995541134764979</v>
+        <v>0.9985018946179771</v>
       </c>
       <c r="M20">
-        <v>1.013194089357043</v>
+        <v>1.014668032980355</v>
       </c>
       <c r="N20">
-        <v>1.00298300423723</v>
+        <v>1.007510930014764</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.019056173436086</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+        <v>1.02022267547542</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.015835267571393</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9625749460408355</v>
+        <v>0.9668840973864001</v>
       </c>
       <c r="D21">
-        <v>0.9901537960378837</v>
+        <v>0.9944188962785215</v>
       </c>
       <c r="E21">
-        <v>0.975536558167019</v>
+        <v>0.9793104479632323</v>
       </c>
       <c r="F21">
-        <v>0.9941660107755969</v>
+        <v>0.9960435428425337</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.033494070582828</v>
+        <v>1.035648146231983</v>
       </c>
       <c r="J21">
-        <v>0.9937252314748491</v>
+        <v>0.9978347316747187</v>
       </c>
       <c r="K21">
-        <v>1.00532414005525</v>
+        <v>1.009506781479898</v>
       </c>
       <c r="L21">
-        <v>0.990996707980068</v>
+        <v>0.994694685633057</v>
       </c>
       <c r="M21">
-        <v>1.009258759270349</v>
+        <v>1.011100261210925</v>
       </c>
       <c r="N21">
-        <v>1.001372931913504</v>
+        <v>1.006898933890897</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.015899643778407</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
+        <v>1.017357119548342</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.015107224966608</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9581159131672047</v>
+        <v>0.9629760936176461</v>
       </c>
       <c r="D22">
-        <v>0.9869614751835578</v>
+        <v>0.9917678565153689</v>
       </c>
       <c r="E22">
-        <v>0.9719861090277742</v>
+        <v>0.9762458412709684</v>
       </c>
       <c r="F22">
-        <v>0.9911503081504188</v>
+        <v>0.993269975606874</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.032181795037725</v>
+        <v>1.034607336895801</v>
       </c>
       <c r="J22">
-        <v>0.9908112321984793</v>
+        <v>0.9954319228623338</v>
       </c>
       <c r="K22">
-        <v>1.002795729708762</v>
+        <v>1.007504176959197</v>
       </c>
       <c r="L22">
-        <v>0.9881337310357574</v>
+        <v>0.9923030311907323</v>
       </c>
       <c r="M22">
-        <v>1.006899141604918</v>
+        <v>1.008975945031064</v>
       </c>
       <c r="N22">
-        <v>1.000366063606811</v>
+        <v>1.006516754562753</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.01403209523524</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
+        <v>1.015675807236175</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.014649036481279</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9604929676922294</v>
+        <v>0.9650373589324617</v>
       </c>
       <c r="D23">
-        <v>0.9886628762135249</v>
+        <v>0.9931638562650807</v>
       </c>
       <c r="E23">
-        <v>0.973877846120724</v>
+        <v>0.9778578032491458</v>
       </c>
       <c r="F23">
-        <v>0.9927561444761772</v>
+        <v>0.9947370724680026</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.032882821835808</v>
+        <v>1.035155188463196</v>
       </c>
       <c r="J23">
-        <v>0.9923649490880007</v>
+        <v>0.9966925621793422</v>
       </c>
       <c r="K23">
-        <v>1.00414421309923</v>
+        <v>1.008555982728599</v>
       </c>
       <c r="L23">
-        <v>0.9896598925006529</v>
+        <v>0.9935577220978532</v>
       </c>
       <c r="M23">
-        <v>1.008156308121343</v>
+        <v>1.010098267335513</v>
       </c>
       <c r="N23">
-        <v>1.000902945976444</v>
+        <v>1.006673599416059</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.015027095862886</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
+        <v>1.016564081524558</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.014888286619894</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9695668021755177</v>
+        <v>0.9730263759163115</v>
       </c>
       <c r="D24">
-        <v>0.9951650603972483</v>
+        <v>0.9985918942706241</v>
       </c>
       <c r="E24">
-        <v>0.9811193227498999</v>
+        <v>0.9841435758753923</v>
       </c>
       <c r="F24">
-        <v>0.998924103402049</v>
+        <v>1.000429105703421</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.03552635654653</v>
+        <v>1.037259265478596</v>
       </c>
       <c r="J24">
-        <v>0.9982888641887382</v>
+        <v>1.001603802445595</v>
       </c>
       <c r="K24">
-        <v>1.009277618358483</v>
+        <v>1.012643783030014</v>
       </c>
       <c r="L24">
-        <v>0.9954863205670115</v>
+        <v>0.9984549901535202</v>
       </c>
       <c r="M24">
-        <v>1.012970139370857</v>
+        <v>1.014448689952953</v>
       </c>
       <c r="N24">
-        <v>1.002949234652055</v>
+        <v>1.007483919629037</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.018837050685962</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
+        <v>1.020007259918054</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.01582082398847</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9795610871374176</v>
+        <v>0.9821316652176494</v>
       </c>
       <c r="D25">
-        <v>1.002337016365778</v>
+        <v>1.00481034594634</v>
       </c>
       <c r="E25">
-        <v>0.9891326380777399</v>
+        <v>0.991385561390469</v>
       </c>
       <c r="F25">
-        <v>1.0057898072037</v>
+        <v>1.006905455671619</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.038368518652185</v>
+        <v>1.039621641818537</v>
       </c>
       <c r="J25">
-        <v>1.004796438803855</v>
+        <v>1.007275705147795</v>
       </c>
       <c r="K25">
-        <v>1.01489916117202</v>
+        <v>1.017334443640063</v>
       </c>
       <c r="L25">
-        <v>1.001902031439006</v>
+        <v>1.004119093781133</v>
       </c>
       <c r="M25">
-        <v>1.018298903868763</v>
+        <v>1.019397510856282</v>
       </c>
       <c r="N25">
-        <v>1.005195355546547</v>
+        <v>1.008983538480494</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.023054529142743</v>
+        <v>1.02392402408783</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.01689807184296</v>
       </c>
     </row>
   </sheetData>
